--- a/TspuWebPortal/Development/unsafe_uploads/DC1_Rack_4.xlsx
+++ b/TspuWebPortal/Development/unsafe_uploads/DC1_Rack_4.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="262">
   <si>
     <t>Серийный номер</t>
   </si>
@@ -33,12 +33,6 @@
   </si>
   <si>
     <t>Наименование оборудования, комплекта</t>
-  </si>
-  <si>
-    <t>Тип, марка</t>
-  </si>
-  <si>
-    <t>Заводской номер или маркировка</t>
   </si>
   <si>
     <t>Инвентарный номер</t>
@@ -769,6 +763,57 @@
   </si>
   <si>
     <t>403</t>
+  </si>
+  <si>
+    <t>Заводской номер</t>
+  </si>
+  <si>
+    <t>Маркировка АСБИ</t>
+  </si>
+  <si>
+    <t>Сервер S1 / АРМ СКЗИ</t>
+  </si>
+  <si>
+    <t>Сервер S2 / kube163-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S2 / kube162-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S2 / kube153-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер T3.2 / xdb143_ural</t>
+  </si>
+  <si>
+    <t>Сервер S3 / fdb124-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S4 / sdb134-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S5 / ch238-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S5 / ch239-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S5 / ch240-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S5 / ch212-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S5 / ch213-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S6 / bk102-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>материнская плата</t>
+  </si>
+  <si>
+    <t>корпус</t>
   </si>
 </sst>
 </file>
@@ -788,12 +833,16 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1144,7 +1193,7 @@
   <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,6 +1202,7 @@
     <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29.42578125" customWidth="1"/>
@@ -1169,94 +1219,96 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3">
         <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3">
         <v>2020</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1266,36 +1318,36 @@
         <v>4</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J3" s="3">
         <v>1</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L3" s="3">
         <v>2020</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1305,48 +1357,48 @@
         <v>4</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J4" s="3">
         <v>1</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L4" s="3">
         <v>2020</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H5" s="3">
         <v>4</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J5" s="3">
         <v>0</v>
@@ -1356,24 +1408,24 @@
         <v>2020</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1382,35 +1434,37 @@
       <c r="H6" s="3">
         <v>4</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="J6" s="3">
         <v>1</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L6" s="3">
         <v>2021</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1419,35 +1473,37 @@
       <c r="H7" s="3">
         <v>4</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="J7" s="3">
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L7" s="3">
         <v>2021</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1456,35 +1512,37 @@
       <c r="H8" s="3">
         <v>4</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="J8" s="3">
         <v>1</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L8" s="3">
         <v>2021</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1493,35 +1551,37 @@
       <c r="H9" s="3">
         <v>4</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="J9" s="3">
         <v>1</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L9" s="3">
         <v>2021</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1530,35 +1590,37 @@
       <c r="H10" s="3">
         <v>4</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="J10" s="3">
         <v>1</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L10" s="3">
         <v>2021</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1567,78 +1629,82 @@
       <c r="H11" s="3">
         <v>4</v>
       </c>
-      <c r="I11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="J11" s="3">
         <v>1</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L11" s="3">
         <v>2021</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3">
         <v>4</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J12" s="3">
         <v>1</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L12" s="3">
         <v>2020</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1648,36 +1714,36 @@
         <v>4</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J13" s="3">
         <v>1</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L13" s="3">
         <v>2020</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1687,48 +1753,48 @@
         <v>4</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J14" s="3">
         <v>1</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L14" s="3">
         <v>2020</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H15" s="3">
         <v>4</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1738,67 +1804,69 @@
         <v>2020</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3">
         <v>4</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J16" s="3">
         <v>1</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L16" s="3">
         <v>2020</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1808,36 +1876,36 @@
         <v>4</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J17" s="3">
         <v>1</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L17" s="3">
         <v>2020</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1847,48 +1915,48 @@
         <v>4</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J18" s="3">
         <v>1</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L18" s="3">
         <v>2020</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H19" s="3">
         <v>4</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J19" s="3">
         <v>0</v>
@@ -1898,67 +1966,69 @@
         <v>2020</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3">
         <v>4</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J20" s="3">
         <v>1</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L20" s="3">
         <v>2020</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1968,36 +2038,36 @@
         <v>4</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L21" s="3">
         <v>2020</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -2007,48 +2077,48 @@
         <v>4</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J22" s="3">
         <v>1</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L22" s="3">
         <v>2020</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H23" s="3">
         <v>4</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -2058,67 +2128,69 @@
         <v>2020</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3">
         <v>4</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J24" s="3">
         <v>1</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L24" s="3">
         <v>2020</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -2128,36 +2200,36 @@
         <v>4</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J25" s="3">
         <v>1</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L25" s="3">
         <v>2020</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -2167,48 +2239,48 @@
         <v>4</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J26" s="3">
         <v>1</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L26" s="3">
         <v>2020</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H27" s="3">
         <v>4</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
@@ -2218,67 +2290,69 @@
         <v>2020</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3">
         <v>4</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J28" s="3">
         <v>1</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L28" s="3">
         <v>2020</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -2288,36 +2362,36 @@
         <v>4</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J29" s="3">
         <v>1</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L29" s="3">
         <v>2020</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -2327,48 +2401,48 @@
         <v>4</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J30" s="3">
         <v>1</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L30" s="3">
         <v>2020</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H31" s="3">
         <v>4</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J31" s="3">
         <v>0</v>
@@ -2378,67 +2452,69 @@
         <v>2020</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3">
         <v>4</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J32" s="3">
         <v>1</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L32" s="3">
         <v>2020</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -2448,36 +2524,36 @@
         <v>4</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J33" s="3">
         <v>1</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L33" s="3">
         <v>2020</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2487,48 +2563,48 @@
         <v>4</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J34" s="3">
         <v>1</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L34" s="3">
         <v>2020</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H35" s="3">
         <v>4</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
@@ -2538,67 +2614,69 @@
         <v>2020</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3">
         <v>4</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J36" s="3">
         <v>1</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L36" s="3">
         <v>2020</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2608,36 +2686,36 @@
         <v>4</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J37" s="3">
         <v>1</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L37" s="3">
         <v>2020</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2647,48 +2725,48 @@
         <v>4</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J38" s="3">
         <v>1</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L38" s="3">
         <v>2020</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H39" s="3">
         <v>4</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J39" s="3">
         <v>0</v>
@@ -2698,34 +2776,36 @@
         <v>2020</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+      <c r="E40" s="3" t="s">
+        <v>251</v>
+      </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3">
         <v>4</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J40" s="3">
         <v>1</v>
@@ -2735,24 +2815,24 @@
         <v>2019</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -2762,7 +2842,7 @@
         <v>4</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J41" s="3">
         <v>1</v>
@@ -2772,24 +2852,24 @@
         <v>2020</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2799,7 +2879,7 @@
         <v>4</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J42" s="3">
         <v>1</v>
@@ -2809,67 +2889,69 @@
         <v>2020</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3">
         <v>4</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J43" s="3">
         <v>1</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L43" s="3">
         <v>2020</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -2879,36 +2961,36 @@
         <v>4</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J44" s="3">
         <v>1</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L44" s="3">
         <v>2020</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -2918,48 +3000,48 @@
         <v>4</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J45" s="3">
         <v>1</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L45" s="3">
         <v>2020</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H46" s="3">
         <v>4</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
@@ -2969,67 +3051,69 @@
         <v>2020</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3">
         <v>4</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J47" s="3">
         <v>1</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L47" s="3">
         <v>2020</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -3038,35 +3122,37 @@
       <c r="H48" s="3">
         <v>4</v>
       </c>
-      <c r="I48" s="3"/>
+      <c r="I48" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="J48" s="3">
         <v>1</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L48" s="3">
         <v>2021</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -3075,35 +3161,37 @@
       <c r="H49" s="3">
         <v>4</v>
       </c>
-      <c r="I49" s="3"/>
+      <c r="I49" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="J49" s="3">
         <v>1</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L49" s="3">
         <v>2021</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -3112,35 +3200,37 @@
       <c r="H50" s="3">
         <v>4</v>
       </c>
-      <c r="I50" s="3"/>
+      <c r="I50" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="J50" s="3">
         <v>1</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L50" s="3">
         <v>2021</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -3149,35 +3239,37 @@
       <c r="H51" s="3">
         <v>4</v>
       </c>
-      <c r="I51" s="3"/>
+      <c r="I51" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="J51" s="3">
         <v>1</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L51" s="3">
         <v>2021</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -3187,36 +3279,36 @@
         <v>4</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J52" s="3">
         <v>1</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L52" s="3">
         <v>2020</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -3226,48 +3318,48 @@
         <v>4</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J53" s="3">
         <v>1</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L53" s="3">
         <v>2020</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H54" s="3">
         <v>4</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J54" s="3">
         <v>0</v>
@@ -3277,69 +3369,71 @@
         <v>2020</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="G55" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="H55" s="3">
         <v>4</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J55" s="3">
         <v>1</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L55" s="3">
         <v>2020</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -3348,35 +3442,37 @@
       <c r="H56" s="3">
         <v>4</v>
       </c>
-      <c r="I56" s="3"/>
+      <c r="I56" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="J56" s="3">
         <v>1</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L56" s="3">
         <v>2021</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -3385,35 +3481,37 @@
       <c r="H57" s="3">
         <v>4</v>
       </c>
-      <c r="I57" s="3"/>
+      <c r="I57" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="J57" s="3">
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L57" s="3">
         <v>2021</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -3422,35 +3520,37 @@
       <c r="H58" s="3">
         <v>4</v>
       </c>
-      <c r="I58" s="3"/>
+      <c r="I58" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="J58" s="3">
         <v>1</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L58" s="3">
         <v>2021</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -3459,35 +3559,37 @@
       <c r="H59" s="3">
         <v>4</v>
       </c>
-      <c r="I59" s="3"/>
+      <c r="I59" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="J59" s="3">
         <v>1</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L59" s="3">
         <v>2021</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -3497,36 +3599,36 @@
         <v>4</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J60" s="3">
         <v>1</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L60" s="3">
         <v>2020</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -3536,48 +3638,48 @@
         <v>4</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J61" s="3">
         <v>1</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L61" s="3">
         <v>2020</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H62" s="3">
         <v>4</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -3587,67 +3689,69 @@
         <v>2020</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="E63" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3">
         <v>4</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J63" s="3">
         <v>1</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L63" s="3">
         <v>2020</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -3656,35 +3760,37 @@
       <c r="H64" s="3">
         <v>4</v>
       </c>
-      <c r="I64" s="3"/>
+      <c r="I64" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="J64" s="3">
         <v>1</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L64" s="3">
         <v>2020</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -3693,41 +3799,43 @@
       <c r="H65" s="3">
         <v>4</v>
       </c>
-      <c r="I65" s="3"/>
+      <c r="I65" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="J65" s="3">
         <v>1</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L65" s="3">
         <v>2020</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -3735,36 +3843,36 @@
         <v>4</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J66" s="3">
         <v>1</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L66" s="3">
         <v>2021</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -3773,35 +3881,37 @@
       <c r="H67" s="3">
         <v>4</v>
       </c>
-      <c r="I67" s="3"/>
+      <c r="I67" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="J67" s="3">
         <v>1</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L67" s="3">
         <v>2021</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -3810,436 +3920,438 @@
       <c r="H68" s="3">
         <v>4</v>
       </c>
-      <c r="I68" s="3"/>
+      <c r="I68" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="J68" s="3">
         <v>1</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L68" s="3">
         <v>2021</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3" t="s">
-        <v>220</v>
-      </c>
+      <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3">
         <v>4</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J69" s="3">
         <v>1</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L69" s="3">
         <v>2021</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3">
         <v>4</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J70" s="3">
         <v>1</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L70" s="3">
         <v>2020</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3" t="s">
-        <v>224</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H71" s="3">
         <v>4</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J71" s="3">
         <v>1</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L71" s="3">
         <v>2020</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3" t="s">
-        <v>228</v>
-      </c>
+      <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3">
         <v>4</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J72" s="3">
         <v>1</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L72" s="3">
         <v>2020</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3" t="s">
-        <v>228</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3">
         <v>4</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J73" s="3">
         <v>1</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L73" s="3">
         <v>2020</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O73" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3" t="s">
-        <v>228</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3">
         <v>4</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J74" s="3">
         <v>1</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L74" s="3">
         <v>2020</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3" t="s">
-        <v>220</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3">
         <v>4</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J75" s="3">
         <v>1</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L75" s="3">
         <v>2020</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O75" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3" t="s">
-        <v>220</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3">
         <v>4</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J76" s="3">
         <v>1</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L76" s="3">
         <v>2020</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3" t="s">
-        <v>43</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3">
         <v>4</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J77" s="3">
         <v>1</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L77" s="3">
         <v>2020</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O77" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3" t="s">
-        <v>43</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3">
         <v>4</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J78" s="3">
         <v>1</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L78" s="3">
         <v>2020</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O78" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/TspuWebPortal/Development/unsafe_uploads/DC1_Rack_4.xlsx
+++ b/TspuWebPortal/Development/unsafe_uploads/DC1_Rack_4.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="273">
   <si>
     <t>Серийный номер</t>
   </si>
@@ -144,9 +144,6 @@
   </si>
   <si>
     <t>2/0/48</t>
-  </si>
-  <si>
-    <t>Трансивер 40GBASE- LR4</t>
   </si>
   <si>
     <t>FT-QSFP+-LR4</t>
@@ -708,9 +705,6 @@
     <t>54.6</t>
   </si>
   <si>
-    <t>FT-SFP+CabA-2</t>
-  </si>
-  <si>
     <t>2/0/24</t>
   </si>
   <si>
@@ -814,6 +808,45 @@
   </si>
   <si>
     <t>корпус</t>
+  </si>
+  <si>
+    <t>10G SFP+ AOC</t>
+  </si>
+  <si>
+    <t>PM350-220/12</t>
+  </si>
+  <si>
+    <t>E10G42BTDABLK</t>
+  </si>
+  <si>
+    <t>T9TDS-IAWIZABYY</t>
+  </si>
+  <si>
+    <t>SYS-1029P-WTR</t>
+  </si>
+  <si>
+    <t>06200282</t>
+  </si>
+  <si>
+    <t>Кабель оптический 10G SFP+, 5м</t>
+  </si>
+  <si>
+    <t>FT-SFP+CabA-5</t>
+  </si>
+  <si>
+    <t>Кабель оптический 10G SFP+, 3м</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FT-SFP+CabA-3   </t>
+  </si>
+  <si>
+    <t>Кабель оптический 10G SFP+, 2м</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FT-SFP+CabA-2   </t>
+  </si>
+  <si>
+    <t>Трансивер 40GBASE-LR4</t>
   </si>
 </sst>
 </file>
@@ -901,13 +934,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1192,16 +1226,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -1219,10 +1253,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -1246,21 +1280,21 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -1269,17 +1303,17 @@
         <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3">
         <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
@@ -1291,26 +1325,28 @@
         <v>2020</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1330,26 +1366,28 @@
         <v>2020</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1369,26 +1407,28 @@
         <v>2020</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>266</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
@@ -1408,26 +1448,28 @@
         <v>2020</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>265</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1435,7 +1477,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J6" s="3">
         <v>1</v>
@@ -1447,26 +1489,28 @@
         <v>2021</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>265</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1474,7 +1518,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J7" s="3">
         <v>1</v>
@@ -1486,26 +1530,28 @@
         <v>2021</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>265</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1513,7 +1559,7 @@
         <v>4</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J8" s="3">
         <v>1</v>
@@ -1525,26 +1571,28 @@
         <v>2021</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>265</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1552,7 +1600,7 @@
         <v>4</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J9" s="3">
         <v>1</v>
@@ -1564,26 +1612,28 @@
         <v>2021</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>265</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1591,7 +1641,7 @@
         <v>4</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J10" s="3">
         <v>1</v>
@@ -1603,26 +1653,28 @@
         <v>2021</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>265</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1630,7 +1682,7 @@
         <v>4</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J11" s="3">
         <v>1</v>
@@ -1642,21 +1694,21 @@
         <v>2021</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -1665,17 +1717,17 @@
         <v>22</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3">
         <v>4</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J12" s="3">
         <v>1</v>
@@ -1687,26 +1739,28 @@
         <v>2020</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1726,26 +1780,28 @@
         <v>2020</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1765,26 +1821,28 @@
         <v>2020</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="3"/>
+        <v>266</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
@@ -1804,21 +1862,21 @@
         <v>2020</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>21</v>
@@ -1827,17 +1885,17 @@
         <v>22</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3">
         <v>4</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J16" s="3">
         <v>1</v>
@@ -1849,26 +1907,28 @@
         <v>2020</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1888,26 +1948,28 @@
         <v>2020</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1927,26 +1989,28 @@
         <v>2020</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>266</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
@@ -1966,21 +2030,21 @@
         <v>2020</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>21</v>
@@ -1989,17 +2053,17 @@
         <v>22</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3">
         <v>4</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J20" s="3">
         <v>1</v>
@@ -2011,26 +2075,28 @@
         <v>2020</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -2050,26 +2116,28 @@
         <v>2020</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -2089,26 +2157,28 @@
         <v>2020</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="C23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="3"/>
+        <v>266</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
@@ -2128,21 +2198,21 @@
         <v>2020</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>21</v>
@@ -2151,17 +2221,17 @@
         <v>22</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3">
         <v>4</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J24" s="3">
         <v>1</v>
@@ -2173,26 +2243,28 @@
         <v>2020</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -2212,26 +2284,28 @@
         <v>2020</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -2251,26 +2325,28 @@
         <v>2020</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="C27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="3"/>
+        <v>266</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
@@ -2290,21 +2366,21 @@
         <v>2020</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>23</v>
@@ -2313,17 +2389,17 @@
         <v>22</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3">
         <v>4</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J28" s="3">
         <v>1</v>
@@ -2335,26 +2411,28 @@
         <v>2020</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -2374,26 +2452,28 @@
         <v>2020</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -2413,26 +2493,28 @@
         <v>2020</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="C31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="3"/>
+        <v>268</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
@@ -2452,21 +2534,21 @@
         <v>2020</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>24</v>
@@ -2475,17 +2557,17 @@
         <v>22</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3">
         <v>4</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J32" s="3">
         <v>1</v>
@@ -2497,26 +2579,28 @@
         <v>2020</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -2536,26 +2620,28 @@
         <v>2020</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -2575,26 +2661,28 @@
         <v>2020</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="C35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="3"/>
+        <v>268</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
@@ -2614,21 +2702,21 @@
         <v>2020</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>25</v>
@@ -2637,17 +2725,17 @@
         <v>22</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3">
         <v>4</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J36" s="3">
         <v>1</v>
@@ -2659,26 +2747,28 @@
         <v>2020</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -2698,26 +2788,28 @@
         <v>2020</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -2737,26 +2829,28 @@
         <v>2020</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="C39" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="3"/>
+        <v>268</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="s">
@@ -2776,28 +2870,30 @@
         <v>2020</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="C40" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="E40" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -2805,7 +2901,7 @@
         <v>4</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J40" s="3">
         <v>1</v>
@@ -2815,26 +2911,28 @@
         <v>2019</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -2852,26 +2950,28 @@
         <v>2020</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -2889,21 +2989,21 @@
         <v>2020</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>26</v>
@@ -2912,17 +3012,17 @@
         <v>27</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3">
         <v>4</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J43" s="3">
         <v>1</v>
@@ -2934,26 +3034,28 @@
         <v>2020</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -2973,26 +3075,28 @@
         <v>2020</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="3"/>
+      <c r="D45" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -3012,30 +3116,32 @@
         <v>2020</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="3"/>
+      <c r="D46" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H46" s="3">
         <v>4</v>
@@ -3051,21 +3157,21 @@
         <v>2020</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>26</v>
@@ -3074,17 +3180,17 @@
         <v>27</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3">
         <v>4</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J47" s="3">
         <v>1</v>
@@ -3096,26 +3202,28 @@
         <v>2020</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D48" s="3"/>
+      <c r="D48" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -3123,38 +3231,40 @@
         <v>4</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J48" s="3">
         <v>1</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L48" s="3">
         <v>2021</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="C49" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D49" s="3"/>
+        <v>168</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -3162,38 +3272,40 @@
         <v>4</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J49" s="3">
         <v>1</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L49" s="3">
         <v>2021</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D50" s="3"/>
+        <v>168</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -3201,38 +3313,40 @@
         <v>4</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J50" s="3">
         <v>1</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L50" s="3">
         <v>2021</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="C51" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D51" s="3"/>
+        <v>168</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -3240,38 +3354,40 @@
         <v>4</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J51" s="3">
         <v>1</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L51" s="3">
         <v>2021</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="3"/>
+      <c r="D52" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -3291,26 +3407,28 @@
         <v>2020</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="3"/>
+      <c r="D53" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -3330,26 +3448,28 @@
         <v>2020</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="C54" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="3"/>
+        <v>268</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>221</v>
+      </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3" t="s">
@@ -3369,21 +3489,21 @@
         <v>2020</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>26</v>
@@ -3392,19 +3512,19 @@
         <v>27</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F55" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="H55" s="3">
         <v>4</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J55" s="3">
         <v>1</v>
@@ -3416,26 +3536,28 @@
         <v>2020</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="C56" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D56" s="3"/>
+        <v>168</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -3443,38 +3565,40 @@
         <v>4</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J56" s="3">
         <v>1</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L56" s="3">
         <v>2021</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="C57" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D57" s="3"/>
+        <v>168</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -3482,38 +3606,40 @@
         <v>4</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J57" s="3">
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L57" s="3">
         <v>2021</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="C58" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D58" s="3"/>
+        <v>168</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -3521,38 +3647,40 @@
         <v>4</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J58" s="3">
         <v>1</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L58" s="3">
         <v>2021</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="C59" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D59" s="3"/>
+        <v>168</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -3560,38 +3688,40 @@
         <v>4</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J59" s="3">
         <v>1</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L59" s="3">
         <v>2021</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="3"/>
+      <c r="D60" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -3611,26 +3741,28 @@
         <v>2020</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="3"/>
+      <c r="D61" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -3650,13 +3782,13 @@
         <v>2020</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
@@ -3664,12 +3796,14 @@
         <v>33</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="3"/>
+        <v>268</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3" t="s">
@@ -3689,40 +3823,40 @@
         <v>2020</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="E63" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3">
         <v>4</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J63" s="3">
         <v>1</v>
@@ -3734,26 +3868,28 @@
         <v>2020</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D64" s="3"/>
+      <c r="D64" s="3" t="s">
+        <v>262</v>
+      </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -3761,7 +3897,7 @@
         <v>4</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J64" s="3">
         <v>1</v>
@@ -3773,26 +3909,28 @@
         <v>2020</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="C65" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D65" s="3"/>
+        <v>205</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>262</v>
+      </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -3800,7 +3938,7 @@
         <v>4</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J65" s="3">
         <v>1</v>
@@ -3812,21 +3950,21 @@
         <v>2020</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>30</v>
@@ -3835,7 +3973,7 @@
         <v>31</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -3843,7 +3981,7 @@
         <v>4</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J66" s="3">
         <v>1</v>
@@ -3855,26 +3993,28 @@
         <v>2021</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="C67" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D67" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -3882,7 +4022,7 @@
         <v>4</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J67" s="3">
         <v>1</v>
@@ -3894,26 +4034,28 @@
         <v>2021</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="C68" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D68" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -3921,7 +4063,7 @@
         <v>4</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J68" s="3">
         <v>1</v>
@@ -3933,27 +4075,27 @@
         <v>2021</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -3974,21 +4116,21 @@
         <v>2021</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>35</v>
@@ -4015,38 +4157,38 @@
         <v>2020</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>17</v>
+        <v>268</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>222</v>
+        <v>269</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H71" s="3">
         <v>4</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J71" s="3">
         <v>1</v>
@@ -4058,27 +4200,27 @@
         <v>2020</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>225</v>
-      </c>
       <c r="C72" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>226</v>
+        <v>270</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>271</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -4087,7 +4229,7 @@
         <v>4</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J72" s="3">
         <v>1</v>
@@ -4099,27 +4241,27 @@
         <v>2020</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>226</v>
+        <v>270</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>271</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -4128,7 +4270,7 @@
         <v>4</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J73" s="3">
         <v>1</v>
@@ -4140,27 +4282,27 @@
         <v>2020</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O73" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>226</v>
+        <v>270</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>271</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -4169,7 +4311,7 @@
         <v>4</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J74" s="3">
         <v>1</v>
@@ -4181,27 +4323,27 @@
         <v>2020</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -4222,27 +4364,27 @@
         <v>2020</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O75" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -4263,27 +4405,27 @@
         <v>2020</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C77" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -4292,7 +4434,7 @@
         <v>4</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J77" s="3">
         <v>1</v>
@@ -4304,27 +4446,27 @@
         <v>2020</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O77" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C78" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -4333,7 +4475,7 @@
         <v>4</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J78" s="3">
         <v>1</v>
@@ -4345,13 +4487,13 @@
         <v>2020</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O78" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
